--- a/6.xlsx
+++ b/6.xlsx
@@ -60,7 +60,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>2004-Q2</t>
+    <t>2003-Q3</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -173,430 +173,430 @@
     <t>Annual change (%)</t>
   </si>
   <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
   </si>
   <si>
     <t>Borrowers outside United States</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.3P.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Of which: emerging market and developing economies</t>
   </si>
   <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.4T.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Africa and Middle East</t>
   </si>
   <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.4W.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.SA.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.ZA.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Emerging Asia and Pacific</t>
   </si>
   <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.4Y.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.CN.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Chinese Taipei</t>
   </si>
   <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.TW.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.IN.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.ID.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.KR.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.MY.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Emerging Europe</t>
   </si>
   <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.3C.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.RU.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.TR.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.4U.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.AR.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.BR.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.CL.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2004-Q2</t>
+    <t>Q.USD.MX.N.A.I.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2003-Q3</t>
   </si>
   <si>
     <t>By instrument</t>
@@ -605,118 +605,118 @@
     <t>Bank loans</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2004-Q2</t>
+    <t>Q.USD.3P.N.B.I.G.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2003-Q3</t>
   </si>
   <si>
     <t>Debt securities issues</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2004-Q2</t>
+    <t>Q.USD.3P.N.A.I.D.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2003-Q3</t>
   </si>
   <si>
     <t>Of which: non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2004-Q2</t>
+    <t>Q.USD.3P.P.A.I.D.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2003-Q3</t>
   </si>
   <si>
     <t>Memo: Borrowers in United States</t>
@@ -725,43 +725,43 @@
     <t>Non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.US.P.A.A.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2004-Q2</t>
+    <t>Q.USD.US.P.A.A.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2003-Q3</t>
   </si>
   <si>
     <t>Of which: government</t>
   </si>
   <si>
-    <t>Q.USD.US.G.A.A.B.USD.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2004-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2003-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2004-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2004-Q2</t>
+    <t>Q.USD.US.G.A.A.B.USD.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2003-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2003-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2003-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2003-Q3</t>
   </si>
 </sst>
 </file>
@@ -1418,22 +1418,22 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>3019.021486</v>
+        <v>2790.480073</v>
       </c>
       <c r="C3">
-        <v>3177.547389</v>
+        <v>2851.308953</v>
       </c>
       <c r="D3">
-        <v>3216.763376</v>
+        <v>2945.372743</v>
       </c>
       <c r="E3">
-        <v>13.9</v>
+        <v>6.2</v>
       </c>
       <c r="F3">
-        <v>13.4</v>
+        <v>8.6</v>
       </c>
       <c r="G3">
-        <v>12.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1441,22 +1441,22 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>1026.876164</v>
+        <v>975.82146</v>
       </c>
       <c r="C4">
-        <v>1091.632873</v>
+        <v>976.090293</v>
       </c>
       <c r="D4">
-        <v>1109.374068</v>
+        <v>997.545407</v>
       </c>
       <c r="E4">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="F4">
-        <v>9.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1464,22 +1464,22 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>134.469019</v>
+        <v>125.608155</v>
       </c>
       <c r="C5">
-        <v>138.180887</v>
+        <v>124.109363</v>
       </c>
       <c r="D5">
-        <v>142.509687</v>
+        <v>123.928122</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>-1.8</v>
       </c>
       <c r="F5">
-        <v>9.699999999999999</v>
+        <v>-4.4</v>
       </c>
       <c r="G5">
-        <v>14.5</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1487,22 +1487,22 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>8.733000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="C6">
-        <v>8.67</v>
+        <v>9.194000000000001</v>
       </c>
       <c r="D6">
-        <v>8.973000000000001</v>
+        <v>8.840999999999999</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>-12.6</v>
       </c>
       <c r="F6">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="G6">
-        <v>-2.4</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1510,22 +1510,22 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>6.6663</v>
+        <v>6.7033</v>
       </c>
       <c r="C7">
-        <v>6.3103</v>
+        <v>6.5353</v>
       </c>
       <c r="D7">
-        <v>7.5193</v>
+        <v>6.7773</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>11.2</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>-4.9</v>
       </c>
       <c r="G7">
-        <v>13.6</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1533,22 +1533,22 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>332.997681</v>
+        <v>307.211116</v>
       </c>
       <c r="C8">
-        <v>379.214733</v>
+        <v>308.553772</v>
       </c>
       <c r="D8">
-        <v>393.991828</v>
+        <v>320.646076</v>
       </c>
       <c r="E8">
-        <v>10.2</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>16.8</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
-        <v>20.8</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1556,22 +1556,22 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>10.6668</v>
+        <v>13.226</v>
       </c>
       <c r="C9">
-        <v>13.6088</v>
+        <v>11.972</v>
       </c>
       <c r="D9">
-        <v>11.0398</v>
+        <v>11.4228</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>-28.9</v>
       </c>
       <c r="G9">
-        <v>-19.4</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1579,22 +1579,22 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>35.89743</v>
+        <v>28.63393</v>
       </c>
       <c r="C10">
-        <v>42.76298</v>
+        <v>28.7895</v>
       </c>
       <c r="D10">
-        <v>47.02471</v>
+        <v>33.18743</v>
       </c>
       <c r="E10">
-        <v>23.6</v>
+        <v>14.7</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>-2.7</v>
       </c>
       <c r="G10">
-        <v>58.6</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1602,22 +1602,22 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>7.62384</v>
+        <v>7.09684</v>
       </c>
       <c r="C11">
-        <v>9.85589</v>
+        <v>7.33084</v>
       </c>
       <c r="D11">
-        <v>11.02589</v>
+        <v>7.75584</v>
       </c>
       <c r="E11">
-        <v>2.8</v>
+        <v>-6.7</v>
       </c>
       <c r="F11">
-        <v>19.2</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>29.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1625,22 +1625,22 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>8.805</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="C12">
-        <v>9.589</v>
+        <v>9.239000000000001</v>
       </c>
       <c r="D12">
-        <v>9.545</v>
+        <v>8.728</v>
       </c>
       <c r="E12">
-        <v>-15.8</v>
+        <v>-20.9</v>
       </c>
       <c r="F12">
-        <v>12.1</v>
+        <v>-20.9</v>
       </c>
       <c r="G12">
-        <v>15.8</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1648,22 +1648,22 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>32.503443</v>
+        <v>32.903214</v>
       </c>
       <c r="C13">
-        <v>33.93998</v>
+        <v>33.732026</v>
       </c>
       <c r="D13">
-        <v>36.22907</v>
+        <v>34.289948</v>
       </c>
       <c r="E13">
-        <v>-10.1</v>
+        <v>-13.3</v>
       </c>
       <c r="F13">
-        <v>-0.5</v>
+        <v>-14.5</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>-19.3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1671,22 +1671,22 @@
         <v>116</v>
       </c>
       <c r="B14">
-        <v>17.804462</v>
+        <v>19.500815</v>
       </c>
       <c r="C14">
-        <v>20.12517</v>
+        <v>19.370789</v>
       </c>
       <c r="D14">
-        <v>19.726505</v>
+        <v>18.374003</v>
       </c>
       <c r="E14">
-        <v>-9.699999999999999</v>
+        <v>19.1</v>
       </c>
       <c r="F14">
-        <v>-8.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="G14">
-        <v>-9.9</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1694,22 +1694,22 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>132.382676</v>
+        <v>118.441263</v>
       </c>
       <c r="C15">
-        <v>142.752023</v>
+        <v>121.507524</v>
       </c>
       <c r="D15">
-        <v>145.348631</v>
+        <v>127.731165</v>
       </c>
       <c r="E15">
-        <v>18.9</v>
+        <v>10.7</v>
       </c>
       <c r="F15">
-        <v>17.6</v>
+        <v>15.1</v>
       </c>
       <c r="G15">
-        <v>16.7</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1717,22 +1717,22 @@
         <v>130</v>
       </c>
       <c r="B16">
-        <v>56.67398</v>
+        <v>54.26999</v>
       </c>
       <c r="C16">
-        <v>60.49998</v>
+        <v>54.39799</v>
       </c>
       <c r="D16">
-        <v>61.55288</v>
+        <v>55.29498</v>
       </c>
       <c r="E16">
-        <v>13.6</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>5.7</v>
+        <v>14.2</v>
       </c>
       <c r="G16">
-        <v>7.3</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1740,22 +1740,22 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>43.020885</v>
+        <v>37.998828</v>
       </c>
       <c r="C17">
-        <v>46.472786</v>
+        <v>39.566617</v>
       </c>
       <c r="D17">
-        <v>47.454797</v>
+        <v>42.788598</v>
       </c>
       <c r="E17">
-        <v>14.8</v>
+        <v>8.5</v>
       </c>
       <c r="F17">
-        <v>21.9</v>
+        <v>20.3</v>
       </c>
       <c r="G17">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1763,22 +1763,22 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>427.026787</v>
+        <v>424.560926</v>
       </c>
       <c r="C18">
-        <v>431.485229</v>
+        <v>421.919634</v>
       </c>
       <c r="D18">
-        <v>427.523923</v>
+        <v>425.240044</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>-1.7</v>
       </c>
       <c r="F18">
-        <v>1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="G18">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1786,22 +1786,22 @@
         <v>151</v>
       </c>
       <c r="B19">
-        <v>69.527581</v>
+        <v>73.664635</v>
       </c>
       <c r="C19">
-        <v>67.516768</v>
+        <v>72.58793300000001</v>
       </c>
       <c r="D19">
-        <v>64.989768</v>
+        <v>70.231899</v>
       </c>
       <c r="E19">
-        <v>-8.199999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="F19">
-        <v>-8.4</v>
+        <v>-9</v>
       </c>
       <c r="G19">
-        <v>-10.5</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1809,22 +1809,22 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>100.608463</v>
+        <v>93.422387</v>
       </c>
       <c r="C20">
-        <v>102.028693</v>
+        <v>95.706261</v>
       </c>
       <c r="D20">
-        <v>99.11978499999999</v>
+        <v>98.190185</v>
       </c>
       <c r="E20">
-        <v>9.9</v>
+        <v>-1.4</v>
       </c>
       <c r="F20">
-        <v>9.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G20">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1832,22 +1832,22 @@
         <v>165</v>
       </c>
       <c r="B21">
-        <v>30.39148</v>
+        <v>29.34889</v>
       </c>
       <c r="C21">
-        <v>31.28593</v>
+        <v>29.4435</v>
       </c>
       <c r="D21">
-        <v>31.75993</v>
+        <v>30.10648</v>
       </c>
       <c r="E21">
-        <v>12.1</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>6.1</v>
+        <v>16.3</v>
       </c>
       <c r="G21">
-        <v>7.4</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1855,22 +1855,22 @@
         <v>172</v>
       </c>
       <c r="B22">
-        <v>84.738631</v>
+        <v>83.975098</v>
       </c>
       <c r="C22">
-        <v>85.815561</v>
+        <v>80.763374</v>
       </c>
       <c r="D22">
-        <v>85.201384</v>
+        <v>78.23651</v>
       </c>
       <c r="E22">
-        <v>-16</v>
+        <v>-10.6</v>
       </c>
       <c r="F22">
-        <v>-5.1</v>
+        <v>-12.3</v>
       </c>
       <c r="G22">
-        <v>-2</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1883,22 +1883,22 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>3019.021486</v>
+        <v>2790.480073</v>
       </c>
       <c r="C24">
-        <v>3177.547389</v>
+        <v>2851.308953</v>
       </c>
       <c r="D24">
-        <v>3216.763376</v>
+        <v>2945.372743</v>
       </c>
       <c r="E24">
-        <v>13.9</v>
+        <v>6.2</v>
       </c>
       <c r="F24">
-        <v>13.4</v>
+        <v>8.6</v>
       </c>
       <c r="G24">
-        <v>12.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1906,22 +1906,22 @@
         <v>180</v>
       </c>
       <c r="B25">
-        <v>1526.347275</v>
+        <v>1422.520121</v>
       </c>
       <c r="C25">
-        <v>1640.393746</v>
+        <v>1450.985539</v>
       </c>
       <c r="D25">
-        <v>1644.363837</v>
+        <v>1500.108226</v>
       </c>
       <c r="E25">
-        <v>15.7</v>
+        <v>6.5</v>
       </c>
       <c r="F25">
-        <v>14.4</v>
+        <v>10.1</v>
       </c>
       <c r="G25">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1929,22 +1929,22 @@
         <v>187</v>
       </c>
       <c r="B26">
-        <v>1492.674212</v>
+        <v>1367.959952</v>
       </c>
       <c r="C26">
-        <v>1537.153644</v>
+        <v>1400.323414</v>
       </c>
       <c r="D26">
-        <v>1572.399539</v>
+        <v>1445.264517</v>
       </c>
       <c r="E26">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="F26">
-        <v>12.4</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>12.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1952,22 +1952,22 @@
         <v>194</v>
       </c>
       <c r="B27">
-        <v>953.153963</v>
+        <v>913.538954</v>
       </c>
       <c r="C27">
-        <v>971.4268039999999</v>
+        <v>923.776023</v>
       </c>
       <c r="D27">
-        <v>986.377503</v>
+        <v>940.7048590000001</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="F27">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="G27">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1975,22 +1975,22 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>1026.876164</v>
+        <v>975.82146</v>
       </c>
       <c r="C28">
-        <v>1091.632873</v>
+        <v>976.090293</v>
       </c>
       <c r="D28">
-        <v>1109.374068</v>
+        <v>997.545407</v>
       </c>
       <c r="E28">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="F28">
-        <v>9.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1998,22 +1998,22 @@
         <v>180</v>
       </c>
       <c r="B29">
-        <v>565.065275</v>
+        <v>536.993121</v>
       </c>
       <c r="C29">
-        <v>617.795746</v>
+        <v>535.922539</v>
       </c>
       <c r="D29">
-        <v>629.699837</v>
+        <v>546.9782259999999</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>-2.6</v>
       </c>
       <c r="F29">
-        <v>10.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G29">
-        <v>12.6</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2021,22 +2021,22 @@
         <v>187</v>
       </c>
       <c r="B30">
-        <v>461.810889</v>
+        <v>438.828339</v>
       </c>
       <c r="C30">
-        <v>473.837127</v>
+        <v>440.167753</v>
       </c>
       <c r="D30">
-        <v>479.67423</v>
+        <v>450.567181</v>
       </c>
       <c r="E30">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2044,22 +2044,22 @@
         <v>194</v>
       </c>
       <c r="B31">
-        <v>425.206611</v>
+        <v>406.079444</v>
       </c>
       <c r="C31">
-        <v>437.132526</v>
+        <v>407.03769</v>
       </c>
       <c r="D31">
-        <v>442.445522</v>
+        <v>415.133435</v>
       </c>
       <c r="E31">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="F31">
-        <v>7.6</v>
+        <v>2.9</v>
       </c>
       <c r="G31">
-        <v>8.699999999999999</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2072,22 +2072,22 @@
         <v>220</v>
       </c>
       <c r="B33">
-        <v>23192.929418</v>
+        <v>21800.530089</v>
       </c>
       <c r="C33">
-        <v>24453.55007</v>
+        <v>22375.656048</v>
       </c>
       <c r="D33">
-        <v>25047.227355</v>
+        <v>22800.840134</v>
       </c>
       <c r="E33">
+        <v>6.8</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
         <v>8.1</v>
-      </c>
-      <c r="F33">
-        <v>12.3</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2095,22 +2095,22 @@
         <v>227</v>
       </c>
       <c r="B34">
-        <v>6416.47</v>
+        <v>5948.009</v>
       </c>
       <c r="C34">
-        <v>7256.459</v>
+        <v>6157.548</v>
       </c>
       <c r="D34">
-        <v>7482.845</v>
+        <v>6295.359</v>
       </c>
       <c r="E34">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="G34">
-        <v>21.5</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
